--- a/ToDelete/ODS_Beschrijving_AccountManagement_AFC_R3.xlsx
+++ b/ToDelete/ODS_Beschrijving_AccountManagement_AFC_R3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CMDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CMDB\ToDelete\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="636" yWindow="636" windowWidth="27492" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historiek" sheetId="20" r:id="rId1"/>
@@ -32,12 +32,12 @@
     <sheet name="lov_14" sheetId="17" state="hidden" r:id="rId18"/>
     <sheet name="lov_15" sheetId="18" state="hidden" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="632">
   <si>
     <t>oracle.dbtools.crest.model.design.relational.Table</t>
   </si>
@@ -1524,33 +1524,6 @@
     <t>ZIPCODE</t>
   </si>
   <si>
-    <t>Datum/tijd waarop een ACCOUNT is aangemaakt</t>
-  </si>
-  <si>
-    <t>Identificatie van de ACCOUNT, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>KAARTHOUDERNUMMER (MoBIB-nummer) van De Lijn toegekend aan de PARTIJ van de ACCOUNT</t>
-  </si>
-  <si>
-    <t>LAND van de PARTIJ, gekoppeld aan ACCOUNT</t>
-  </si>
-  <si>
-    <t>CODE van de PARTIJ aan wie de ACCOUNT gelinkt is</t>
-  </si>
-  <si>
-    <t>POSTCODE van de PARTIJ, gekoppeld aan ACCOUNT</t>
-  </si>
-  <si>
-    <t>TYPE van de ACCOUNT</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Dit attribuut is opgenomen in de ACCOUNTS om efficient de BILLING_REQUESTS te kunnen genereren. Voor het ODS kunnen deze velden genegeerd worden.</t>
-  </si>
-  <si>
     <t>B2BCONTRACTS</t>
   </si>
   <si>
@@ -1575,39 +1548,6 @@
     <t>MODIFIEDBY</t>
   </si>
   <si>
-    <t>Datum/tijd waarop het B2B_CONTRACT is aangemaakt</t>
-  </si>
-  <si>
-    <t>Identificatie van de gebruiker die het B2B CONTRACT heeft aangemaakt</t>
-  </si>
-  <si>
-    <t>Referentie naar ID van de ACCOUNT waaraan het B2B CONTRACT aan gekoppeld is</t>
-  </si>
-  <si>
-    <t>CODE van de ENTITEIT waarin het B2B_CONTRACT is opgesteld</t>
-  </si>
-  <si>
-    <t>NAAM van de ENTITEIT waarin het B2B_CONTRACT is opgesteld</t>
-  </si>
-  <si>
-    <t>Externe referentie van het B2B CONTRACT</t>
-  </si>
-  <si>
-    <t>Datum/tijd waarop het B2B_CONTRACT het laatst is gewijzigd</t>
-  </si>
-  <si>
-    <t>Identificatie van de gebruiker die het B2B CONTRACT het laatst heeft gewijzigd</t>
-  </si>
-  <si>
-    <t>Identificatie van de B2B CONTRACT, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>NAAM van het B2B CONTRACT</t>
-  </si>
-  <si>
-    <t>STATUS van het B2B CONTRACT</t>
-  </si>
-  <si>
     <t>B2BCONTRACTPARTS</t>
   </si>
   <si>
@@ -1638,9 +1578,6 @@
     <t>VALIDFROM</t>
   </si>
   <si>
-    <t>CARRIERINCLUDED</t>
-  </si>
-  <si>
     <t>REMARK</t>
   </si>
   <si>
@@ -1650,85 +1587,15 @@
     <t>WARNINGLIST</t>
   </si>
   <si>
-    <t>WARNINGOFFSETDAY</t>
-  </si>
-  <si>
     <t>WARNINGLISTOFFSET</t>
   </si>
   <si>
-    <t>Datum/tijd waarop het B2B CONTRACTONDERDEEL is aangemaakt</t>
-  </si>
-  <si>
-    <t>Identificatie van de gebruiker die het B2B CONTRACTONDERDEEL heeft aangemaakt</t>
-  </si>
-  <si>
-    <t>VORM waarop de DBS CONTRIBUTIE wordt toegekend</t>
-  </si>
-  <si>
-    <t>WAARDE waarmee de B2B CONTRIBUTIE berekend wordt volgends de B2B BIJDRAGE VORM</t>
-  </si>
-  <si>
-    <t>Referentie naar ID van het B2B CONTRACT waartoe het B2B CONTRACT_ONDERDEEL behoort</t>
-  </si>
-  <si>
-    <t>Type van DOELGROEP BEPALING</t>
-  </si>
-  <si>
-    <t>Externe referentie van het B2B CONTRACTONDERDEEL</t>
-  </si>
-  <si>
-    <t>Datum/tijd waarop het B2B CONTRACTONDERDEEL het laatst is gewijzigd</t>
-  </si>
-  <si>
-    <t>Identificatie van de gebruiker die het B2B CONTRACTONDERDEEL het laatst is gewijzigd</t>
-  </si>
-  <si>
-    <t>Identificatie van het B2B CONTRACT ONDERDEEL, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>AANDUIDING of de DRAGER binnen het B2B CONTRACTONDERDEEL valt</t>
-  </si>
-  <si>
-    <t>NAAM van het B2B CONTRACTONDERDEEL</t>
-  </si>
-  <si>
-    <t>Vrij veld beschikbaar voor opmerkingen</t>
-  </si>
-  <si>
-    <t>STATUS van het B2B CONTRACTONDERDEEL</t>
-  </si>
-  <si>
-    <t>Aanduiding of een WAARSCHUWINGSLIJST moet worden uitgestuurd</t>
-  </si>
-  <si>
-    <t>Dag waarop de WAARSCHUWINGSLIJST verstuurd moet worden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aantal dagen dat WAARSCHUWINGSLIJST moet worden uitgestuurd voor het vervallen van het CONTRACT </t>
-  </si>
-  <si>
-    <t>Enum-waarden:
-- 0: forfaitair
-- 1: volgens toegekende DBS CONTRIBUTIES</t>
-  </si>
-  <si>
-    <t>Enum-waarden:
-	0: neen
-	1: ja</t>
-  </si>
-  <si>
-    <t>Bvb.: '15' betekent dat de WAARSCHUWINGSLIJST op de 15de dag van de maand moet verstuurd worden</t>
-  </si>
-  <si>
     <t>B2BACCOUNTS</t>
   </si>
   <si>
     <t>CONTRACTS</t>
   </si>
   <si>
-    <t>BILLINGACCOUNTLEFT</t>
-  </si>
-  <si>
     <t>REQUESTLINEID</t>
   </si>
   <si>
@@ -1765,9 +1632,6 @@
     <t>FAVORITECARRIER</t>
   </si>
   <si>
-    <t>RENEWALDESABLED</t>
-  </si>
-  <si>
     <t>REPORTEDDEFECTDATETIME</t>
   </si>
   <si>
@@ -1777,730 +1641,298 @@
     <t>CONFIRMATIONDATETIME</t>
   </si>
   <si>
+    <t>MEDIUMCODE</t>
+  </si>
+  <si>
+    <t>ORGANISATIONALUNITCODE</t>
+  </si>
+  <si>
+    <t>JUSTIFICATION</t>
+  </si>
+  <si>
+    <t>REFERENCE</t>
+  </si>
+  <si>
+    <t>CHIPNUMBER</t>
+  </si>
+  <si>
+    <t>STARTDATETIME</t>
+  </si>
+  <si>
+    <t>STOCKNUMBER</t>
+  </si>
+  <si>
+    <t>STOPDATETIME</t>
+  </si>
+  <si>
+    <t>TARIFFCODE</t>
+  </si>
+  <si>
+    <t>TARIFFID</t>
+  </si>
+  <si>
+    <t>APPLIEDPROFILECODE</t>
+  </si>
+  <si>
+    <t>ISSUERCODE</t>
+  </si>
+  <si>
+    <t>DELIVERYMETHOD</t>
+  </si>
+  <si>
+    <t>OFFEREXTENSIONDATETIME</t>
+  </si>
+  <si>
+    <t>DATERENEWALSENT</t>
+  </si>
+  <si>
+    <t>NEXTCONTRACTNUMBER</t>
+  </si>
+  <si>
+    <t>NEXTSERIALNUMBER</t>
+  </si>
+  <si>
+    <t>PREVIOUSCONTRACTNUMBER</t>
+  </si>
+  <si>
+    <t>PREVIOUSSERIALNUMBER</t>
+  </si>
+  <si>
+    <t>CONTRACTARTICLES</t>
+  </si>
+  <si>
+    <t>CONTRACTID</t>
+  </si>
+  <si>
+    <t>PRODUCT_ITEM_ID</t>
+  </si>
+  <si>
+    <t>MEDIUMSERIALNUMBER</t>
+  </si>
+  <si>
+    <t>CONTRACTARTICLEATTRIBUTES</t>
+  </si>
+  <si>
+    <t>ATTRIBUTEDEFINITIONCODE</t>
+  </si>
+  <si>
+    <t>BOOLEANVALUE</t>
+  </si>
+  <si>
+    <t>BYTEARRAYVALUE</t>
+  </si>
+  <si>
+    <t>CONTRACTARTICLEID</t>
+  </si>
+  <si>
+    <t>DATEVALUE</t>
+  </si>
+  <si>
+    <t>DECIMALVALUE</t>
+  </si>
+  <si>
+    <t>INTEGERVALUE</t>
+  </si>
+  <si>
+    <t>STRINGVALUE</t>
+  </si>
+  <si>
+    <t>VALUETYPE</t>
+  </si>
+  <si>
+    <t>OCCURANCEDATE</t>
+  </si>
+  <si>
+    <t>GEOCONSTRAINTS</t>
+  </si>
+  <si>
+    <t>B2BCONTRACTPARTID</t>
+  </si>
+  <si>
+    <t>POSTALCODE</t>
+  </si>
+  <si>
+    <t>BENEFICIARYCANDIDATES</t>
+  </si>
+  <si>
+    <t>INSZNUMBER</t>
+  </si>
+  <si>
+    <t>AGECONSTRAINTS</t>
+  </si>
+  <si>
+    <t>UPPERLIMIT</t>
+  </si>
+  <si>
+    <t>LOWERLIMIT</t>
+  </si>
+  <si>
+    <t>PROFILECONSTRAINTS</t>
+  </si>
+  <si>
+    <t>TRAVELCONTRACTCANCELREASON</t>
+  </si>
+  <si>
+    <t>TARIFFCONSTRAINTS</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Versie</t>
+  </si>
+  <si>
+    <t>Opmerking</t>
+  </si>
+  <si>
+    <t>Jan Van der Borght</t>
+  </si>
+  <si>
+    <t>00.01</t>
+  </si>
+  <si>
+    <t>ENTITYNAME</t>
+  </si>
+  <si>
+    <t>CONTRACTNAME</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>B2B_ACCOUNTS</t>
+  </si>
+  <si>
+    <t>B2B_ACCOUNT_ID</t>
+  </si>
+  <si>
+    <t>1ste versie</t>
+  </si>
+  <si>
+    <t>Tabel details</t>
+  </si>
+  <si>
+    <t>ENTITEIT_NAAM</t>
+  </si>
+  <si>
+    <t>00.03</t>
+  </si>
+  <si>
+    <t>Aanpassing ifv RV3</t>
+  </si>
+  <si>
+    <t>TARIEF_BEPERKINGENs</t>
+  </si>
+  <si>
+    <t>TARIFFCONSTRAINT</t>
+  </si>
+  <si>
+    <t>IS_OTHER_PTO</t>
+  </si>
+  <si>
+    <t>IS_ANDERE_PTO</t>
+  </si>
+  <si>
+    <t>VARCHAR2(200 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(50 char)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(128 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(16 CHAR)</t>
+  </si>
+  <si>
+    <t>Number(1,0)</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>VARCHAR2(64 CHAR)</t>
+  </si>
+  <si>
+    <t>NUMBER(1,0)</t>
+  </si>
+  <si>
+    <t>CONTRACT_NAAM</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>NUMBER(2,0)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(256 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(512 CHAR)</t>
+  </si>
+  <si>
+    <t>NUMBER(9,0)</t>
+  </si>
+  <si>
+    <t>NUMBER(9,0</t>
+  </si>
+  <si>
+    <t>VARCHAR2(50 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(64 CHAR</t>
+  </si>
+  <si>
+    <t>VARCHAR2(40 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(64 BYTE)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(2000 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(100 BYTE)</t>
+  </si>
+  <si>
+    <t>NUMBER(38,0)</t>
+  </si>
+  <si>
+    <t>ENTITY_VERSION</t>
+  </si>
+  <si>
+    <t>IDENTITEIT_VERSIE</t>
+  </si>
+  <si>
+    <t>VARCHAR2(60 CHAR)</t>
+  </si>
+  <si>
+    <t>Number(3,0)</t>
+  </si>
+  <si>
+    <t>RAW(16)</t>
+  </si>
+  <si>
+    <t>Number(2,0)</t>
+  </si>
+  <si>
+    <t>WARNINGLISTDAY</t>
+  </si>
+  <si>
+    <t>CARRIERINCLUSIVE</t>
+  </si>
+  <si>
     <t>WITHDRAWALDATETIME</t>
   </si>
   <si>
-    <t>MEDIUMCODE</t>
-  </si>
-  <si>
-    <t>ORGANISATIONALUNITCODE</t>
-  </si>
-  <si>
-    <t>JUSTIFICATION</t>
-  </si>
-  <si>
-    <t>REFERENCE</t>
-  </si>
-  <si>
-    <t>CHIPNUMBER</t>
-  </si>
-  <si>
-    <t>STARTDATETIME</t>
-  </si>
-  <si>
-    <t>STOCKNUMBER</t>
-  </si>
-  <si>
-    <t>STOPDATETIME</t>
-  </si>
-  <si>
-    <t>TARIFFCODE</t>
-  </si>
-  <si>
-    <t>TARIFFID</t>
-  </si>
-  <si>
-    <t>APPLIEDPROFILECODE</t>
-  </si>
-  <si>
-    <t>ISSUERCODE</t>
-  </si>
-  <si>
-    <t>DELIVERYMETHOD</t>
-  </si>
-  <si>
-    <t>OFFEREXTENSIONDATETIME</t>
-  </si>
-  <si>
-    <t>DATERENEWALSENT</t>
-  </si>
-  <si>
-    <t>NEXTCONTRACTNUMBER</t>
-  </si>
-  <si>
-    <t>NEXTSERIALNUMBER</t>
-  </si>
-  <si>
-    <t>PREVIOUSCONTRACTNUMBER</t>
-  </si>
-  <si>
-    <t>PREVIOUSSERIALNUMBER</t>
-  </si>
-  <si>
-    <t>Aantal INKOMSTENBOEKINGEN die nog moeten aangemaakt worden</t>
-  </si>
-  <si>
-    <t>Referentie naar de AANVRAAGLIJN die aan de basis ligt van deze OFFERTELIJN</t>
-  </si>
-  <si>
-    <t>Referentie naar ID van het ACCOUNT waartoe het CONTRACT behoort</t>
-  </si>
-  <si>
-    <t>BEDRAG van de reeds aangemaakte INKOMSTENBOEKINGEN</t>
-  </si>
-  <si>
-    <t>BEDRAG van de nog aan te maken INKOMSTENBOEKINGEN</t>
-  </si>
-  <si>
-    <t>BTW CODE die van toepassing is</t>
-  </si>
-  <si>
-    <t>NUMMER van het CONTRACT</t>
-  </si>
-  <si>
-    <t>Aanduiding dat de KAART de FAVORIETE DRAGER is van de PERSOON</t>
-  </si>
-  <si>
-    <t>Aanduiding dat het CONTRACT niet mag verlengd worden binnen het automatische verlengingsproces</t>
-  </si>
-  <si>
-    <t>Identificatie van het CONTRACT, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>KAARTHOUDERNUMMER van de PERSOON, toegekend door de UITGEVER van de KAART</t>
-  </si>
-  <si>
-    <t>CODE die het TYPE MEDIUM aangeeft</t>
-  </si>
-  <si>
-    <t>CODE van de ORGANISATORISCHE EENHEID die het CONTRACT UITREIKTE</t>
-  </si>
-  <si>
-    <t>REDEN die verantwoordelijk is voor de laatste wijziging van de STATUS van het CONTRACT</t>
-  </si>
-  <si>
-    <t>Referentie</t>
-  </si>
-  <si>
-    <t>SERIENUMMER van de KAART</t>
-  </si>
-  <si>
-    <t>STATUS van het CONTRACT</t>
-  </si>
-  <si>
-    <t>STOCKNUMMER van de KAART</t>
-  </si>
-  <si>
-    <t>Referentie naar ID van het TARIEF waarvoor het CONTRACT is opgesteld</t>
-  </si>
-  <si>
-    <t>CODE van het PERSOONPROFIEL dat werd TOEGEPAST voor het aanmaken van het CONTRACT</t>
-  </si>
-  <si>
-    <t>TYPE van het CONTRACT</t>
-  </si>
-  <si>
-    <t>Manier van uitgifte van het REISPRODUCT CONTRACT</t>
-  </si>
-  <si>
-    <t>Datum/tijd waarop het VERLENGINGSVOORSTEL voor het CONTRACT werd opgemaakt en verzonden</t>
-  </si>
-  <si>
-    <t>NUMMER van het CONTRACT dat dit CONTRACT vervangen heeft, dit in de context van vervanging, verplaatsen naar andere KAART...</t>
-  </si>
-  <si>
-    <t>SERIENUMMER van de KAART die de KAART van dit CONTRACT vervangt</t>
-  </si>
-  <si>
-    <t>NUMMER van het CONTRACT dat aan de basis lag van dit CONTRACT, dit in de context van vervanging, verplaatsen naar andere KAART...</t>
-  </si>
-  <si>
-    <t>SERIENUMMER van de vorige (vervangen) KAART</t>
-  </si>
-  <si>
-    <t>Enum-waarden:
-- 0: neen
-- 1: ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voor reiscontracten: 
-	1: Confirmed (Bevestigd)
-	2: Produced (....)
-	3: Distributed (Verdeeld)  
-	4: Delivered (Afgeleverd)
-	5: InUse (In gebruik)
-	6: CloseRequested (Stopzetting aangevraagd)
-	7:  CloseDistributed (Stopzetting verdeeld)
-	8: Closed (Stopgezet)
-	9: DeliveryFailed (Aflevering gefaald)  
-	10: Replaced (Vervangen) 
-Voor kaartcontracten:
-	1: Confirmed (Bevestigd)
-	2: Produced (...)
-	3: Distributed (Verdeeld)
-	4: Delivered (Afgeleverd)  
-	5: InUse (In gebruik)  
-	6:  Deactivated (Stopgezet)  
-	7:  Defect (Geregistreerd als defect)
-	8: Withdrawn (Ingetrokken)  
-	9: DeliveryFailed (Aflevering gefaald)
-	10: Blocked (....) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waarden: 
-	MOBIB Kaart
-	Omnipas 65+ Standaard
-	Vrijverkeer abonnement
-	....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enum-waarden
-	1: Travel 
-	2: Card 
-	3: Value added service </t>
-  </si>
-  <si>
-    <t>Waarden:
-	I1: De Lijn</t>
-  </si>
-  <si>
-    <t>CONTRACTARTICLES</t>
-  </si>
-  <si>
-    <t>CONTRACTID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referentie naar ID van het ARTIKEL ITEM gekoppeld aan het CONTRACT </t>
-  </si>
-  <si>
-    <t>CODE van het ARTIKEL</t>
-  </si>
-  <si>
-    <t>Identificatie van het CONTRACT_ARTIKEL, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>SERIENUMMER van het MEDIUM waarvoor het CONTRACT_ARTIKEL bestemd is</t>
-  </si>
-  <si>
-    <t>PRODUCT_ITEM_ID</t>
-  </si>
-  <si>
-    <t>MEDIUMSERIALNUMBER</t>
-  </si>
-  <si>
-    <t>CONTRACTARTICLEATTRIBUTES</t>
-  </si>
-  <si>
-    <t>ATTRIBUTEDEFINITIONCODE</t>
-  </si>
-  <si>
-    <t>BOOLEANVALUE</t>
-  </si>
-  <si>
-    <t>BYTEARRAYVALUE</t>
-  </si>
-  <si>
-    <t>CONTRACTARTICLEID</t>
-  </si>
-  <si>
-    <t>DATEVALUE</t>
-  </si>
-  <si>
-    <t>DECIMALVALUE</t>
-  </si>
-  <si>
-    <t>INTEGERVALUE</t>
-  </si>
-  <si>
-    <t>STRINGVALUE</t>
-  </si>
-  <si>
-    <t>VALUETYPE</t>
-  </si>
-  <si>
-    <t>Booleaanse waarde van het ATTRIBUUT</t>
-  </si>
-  <si>
-    <t>Byte array waarde van het ATTRIBUUT</t>
-  </si>
-  <si>
-    <t>Referentie naar ID van het CONTRACT_ARTIKEL waaraan het CONTRACT_ARTIKEL_ATTRIBUUT behoort</t>
-  </si>
-  <si>
-    <t>Datum waarde van het ATTRIBUUT</t>
-  </si>
-  <si>
-    <t>Decimale waarde van het ATTRIBUUT</t>
-  </si>
-  <si>
-    <t>Identificatie van het CONTRACT_ARTIKEL_ATTRIBUUT, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>Integer waarde van het ATTRIBUUT</t>
-  </si>
-  <si>
-    <t>String waarde van het ATTRIBUUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enum-waarden:
-	1: 	String
-	2: 	Float 
-	3: 	Text 
-	4:	Integer 
-	5: 	DateTime 
-	6: 	Boolean 
-	1000: 	Amount (Bedrag)
-	1001: 	County Code (Land code)
-	1002:  	Currency Code (Valuta code)
-	1003: 	Email Address (Email adres)
-	1004:  	Enumeration (Enumeratie)
-	1005: 	Language Code (Taal code)
-	1006:	MultiLanguageLabel (Meertaligheidslabel)
-	1007:	MultiLanguageText (Meertaligsheidstekst)
-	1008:	PhoneNumber (Telefoonnummer)
-	1009:	PostalAddress (Postadres)
-	1010:	ReleaseStatus (Release status)
-	1011:	Sex (Geslacht) 
-	1012:	Tag 
-	1013:	Photo (Foto)
-	1014: 	Enumeration (Enumeratie)
-	1015:	MobibCardHolderLanguage (Taal Mobib kaarthouder)
-	2001:	MobibCompany (Mobib uitgever)
-	2002:	MobibContractPeriodJourneys 
-	2003:	MobibContractRestrictCode 
-	2004:	MobibContractRestrictTime 
-	2005:	MobibContractValidityDuration 
-	2006:	MobibContractVehicleClassAllowed 
-	2007:	MobibCounterUsage (Mobib contract teller gebruik)
-	2008: 	Mobib Contract Tariff (Mobib contract tarief)
-</t>
-  </si>
-  <si>
-    <t>OCCURANCEDATE</t>
-  </si>
-  <si>
-    <t>Referentie naar het ID van het CONTRACT waarvoor dit event heeft plaatsgevonden</t>
-  </si>
-  <si>
-    <t>Datum/tijd waarop het EVENT zich voordeed</t>
-  </si>
-  <si>
-    <t>Identificatie van het EVENT, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>Beschrijving van het EVENT dat zich voordeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waarden: 
-- BusMessage
-- CardManagement
-- OrderManagement
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waarden:
-- CardDelivered (KC afgeleverd)
-- CardDeliveryFailed (KC aflevering gefaald)
-- CardDistributed (KC verdeeld)
-- CardProduced (KC ...)
-- CardsActivated (KC in gebruik)
-- CreateCardContract (KC aangemaakt)
-- CreateTravelContract (RPC aangemaakt)
-- Lost (KC verloren)
-- Overlijden (kaarthouder overleden)
-- Stolen (KC gestolen)
-- TravelContractCloseRequestDistribution (RPC stopzetting verdeeld)
-- TravelContractDelivered (RPC afgeleverd)
-- TravelContractDeliveryFailed (RPC aflevering gefaald)
-- TravelContractDistributed (RPC verdeeld)
-- TravelContractProduced (RPC ...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enum-waarden
-- 1: Confirmed (bevestigd)
-- 2: Produced (...)
-- 3: Distributed (verdeeld)
-- 4: Delivered (afgeleverd)
-- 5: InUse (in gebruik)
-- 6: Deactivated (stopgezet)
-- 7: Defect (geregistreerd als defect)
-- 8: Withdrawn (ingetrokken) 
-- 9: DeliveryFailed (aflevering gefaald)
-- 10: Blocked (geblokkerd)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enum-waarden
-- 1:  Travel 
-- 2:  Card 
-- 3:  Value added service
-</t>
-  </si>
-  <si>
-    <t>GEOCONSTRAINTS</t>
-  </si>
-  <si>
-    <t>B2BCONTRACTPARTID</t>
-  </si>
-  <si>
-    <t>POSTALCODE</t>
-  </si>
-  <si>
-    <t>Referentie naar ID van het B2B CONTRACTONDERDEEL waaraan de GEOGRAFISCHE BEPERKING gekoppeld is</t>
-  </si>
-  <si>
-    <t>Identificatie van de GEOGRAFISCHE BEPERKING, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>BENEFICIARYCANDIDATES</t>
-  </si>
-  <si>
-    <t>INSZNUMBER</t>
-  </si>
-  <si>
-    <t>Referentie naar ID van het B2B CONTRACTONDERDEEL waaraan de KANDIDAAT BEGUNSTIGDE gekoppeld zijn</t>
-  </si>
-  <si>
-    <t>EXTERNE REFERENTIE van de KANDIDAAT BEGUNSTIGDE</t>
-  </si>
-  <si>
-    <t>KANDIDAAT BEGUNSTIGDE is geldig tot en met</t>
-  </si>
-  <si>
-    <t>Identificatie van de KANDIDAAT BEGUNSTIGDE, GUID gegenereerd door het systeem</t>
-  </si>
-  <si>
-    <t>INSZ NUMMER van de KANDIDAAT BEGUNSTIGDE</t>
-  </si>
-  <si>
-    <t>AGECONSTRAINTS</t>
-  </si>
-  <si>
-    <t>UPPERLIMIT</t>
-  </si>
-  <si>
-    <t>LOWERLIMIT</t>
-  </si>
-  <si>
-    <t>Identificatie van de LEEFTIJD_BEPERKING, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>Bovenste limiet van de LEEFTIJD BEPERKING</t>
-  </si>
-  <si>
-    <t>Onderste limiet van de LEEFTIJD BEPERKING</t>
-  </si>
-  <si>
-    <t>PROFILECONSTRAINTS</t>
-  </si>
-  <si>
-    <t>Identificatie van de PROFIEL BEPERKING, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>TRAVELCONTRACTCANCELREASON</t>
-  </si>
-  <si>
-    <t>Identificatie van de STOPZETTING RPC REDEN, GUID gegenereerd door het systeem</t>
-  </si>
-  <si>
-    <t>TARIFFCONSTRAINTS</t>
-  </si>
-  <si>
-    <t>Referentie naar de ID van het B2B CONTRACTONDERDEEL waaraan de TARIEF BEPERKING gekoppeld is</t>
-  </si>
-  <si>
-    <t>Identificatie van de TARIEF BEPERKING, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>CODE van het TARIEF waarvoor de TARIEF BEPERKING geldt</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Naam</t>
-  </si>
-  <si>
-    <t>Versie</t>
-  </si>
-  <si>
-    <t>Opmerking</t>
-  </si>
-  <si>
-    <t>Jan Van der Borght</t>
-  </si>
-  <si>
-    <t>00.01</t>
-  </si>
-  <si>
-    <t>ENTITYNAME</t>
-  </si>
-  <si>
-    <t>CONTRACTNAME</t>
-  </si>
-  <si>
-    <t>Waarden:
-- 0: Activated (geactiveerd)
-- 1: Cancelled (stopgezet)</t>
-  </si>
-  <si>
-    <t>Aanduiding of een DBS CONTRACTONDERDEEL automatisch verlengd mag worden.
-OPMERKING: CHECKEN OF HET GAAT OM HET CONTRACTONDERDEEL OF DE CONTRACTEN</t>
-  </si>
-  <si>
-    <t>Enum-waarden:
-- 0: Absolute (vast bedrag)
-- 1: Percentage (percentage)</t>
-  </si>
-  <si>
-    <t>Waarden:
-- 0: List (lijst kandidaat begunstigden)
-- 1: Certificate (attest)
-- 2: ListWithCertificate (lijst kandidaat begunstigden en attest)
-- 3: Restriction (doelgroep beperkingen)</t>
-  </si>
-  <si>
-    <t>Enum-waarden:
-- 0: neen
-- 1: ja
-OPMERKING: ENUM WAARDEN CHECKEN</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>Enum waarden:
-- 0: Activated (geactiveerd)
-- 1: Cancelled (...)
-- 2: Terminated (stopgezet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enum-waarden:
-- 999: 0%
-- 23: 6%
-- 24: 12%
-- 25: 21%
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waarden:
-- Travel 
-- Card 
-- Value added service
-</t>
-  </si>
-  <si>
-    <t>Waarden:
-	ENTITY_009: SSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enum-waarden
-- 1: Smartcard 
-- 2: Groene lijst 
-</t>
-  </si>
-  <si>
-    <t>bvb.: 
-- personeelsnummer
-- ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waarden: 
-- Overlijden
-- Inlevering kaart
-- Omschakeling job
-- Omschakeling reisproduct
-- Andere…
-</t>
-  </si>
-  <si>
-    <t>Datum/tijd waarop het B2B CONTRACT is stopgezet</t>
-  </si>
-  <si>
-    <t>TYPE van FACTURATIE</t>
-  </si>
-  <si>
-    <t>Datum/tijd tot en met wanneer de geldigheid van een B2B CONTRACTONDERDEEL loopt</t>
-  </si>
-  <si>
-    <t>Datum/tijd van wanneer een B2B CONTRACTONDERDEEL geldig wordt</t>
-  </si>
-  <si>
-    <t>TYPE van UITGIFTE
-OPMERKING: OBSOLETE?</t>
-  </si>
-  <si>
-    <t>BTW BEDRAG van de reeds aangemaakte INKOMSTENBOEKINGEN</t>
-  </si>
-  <si>
-    <t>BTW BEDRAG van de nog aan te maken INKOMSTENBOEKINGEN</t>
-  </si>
-  <si>
-    <t>BTW PERCENTAGE dat van toepassing is</t>
-  </si>
-  <si>
-    <t>TYPE van CONTRACT</t>
-  </si>
-  <si>
-    <t>Einddatum/tijd van het CONTRACT</t>
-  </si>
-  <si>
-    <t>Datum/tijd waarop het ARTIKEL werd geregistreerd als defect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referentie naar het ID van het GEZIN, indien het CONTRACT is verkocht in gezinsverband </t>
-  </si>
-  <si>
-    <t>Datum/tijd van goedkeuring OFFERTE</t>
-  </si>
-  <si>
-    <t>Datum/tijd van de intrekking van het KAARTCONTRACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waarden:
-- MOB
-- VVKK
-</t>
-  </si>
-  <si>
-    <t>Bevat de module die verantwoordelijk is voor de laatste laatste wijziging van de STATUS of rechtvaardiging ingegeven tijdens nazorgproces voor het CONTRACT</t>
-  </si>
-  <si>
-    <t>Datum/tijd van de stopzetting van het REISCONTRACT</t>
-  </si>
-  <si>
-    <t>CODE van het TARIEF waarvoor het CONTRACT is aangemaakt</t>
-  </si>
-  <si>
-    <t>CODE van de UITGEVER van het CONTRACT</t>
-  </si>
-  <si>
-    <t>Datum/tijd waarop voor het CONTRACT een verlengingsvoorstel zal moeten worden opgemaakt</t>
-  </si>
-  <si>
-    <t>Referentie naar ID van het CONTRACT waartoe het CONTRACT_ARTIKEL behoort</t>
-  </si>
-  <si>
-    <t>CODE van het CONFIGUREERBAAR ATTRIBUUT van het ARTIKEL</t>
-  </si>
-  <si>
-    <t>TYPE van de waarde van het ATTRIBUUT</t>
-  </si>
-  <si>
-    <t>Aanduiding waarop het het EVENT betrekking heeft</t>
-  </si>
-  <si>
-    <t>STATUS die betrekking heeft op het EVENT</t>
-  </si>
-  <si>
-    <t>TYPE van het CONTRACT waarop dit EVENT betrekking heeft</t>
-  </si>
-  <si>
-    <t>POSTCODE waarvoor de GEOGRAFISCHE BEPERKING van toepassing is</t>
-  </si>
-  <si>
-    <t>Refentie naar de ID van het B2B CONTRACTONDERDEEL waaraan de LEEFTIJD BEPERKING gekoppeld is</t>
-  </si>
-  <si>
-    <t>Referentie naar het ID van het B2B CONTRACTONDERDEEL waaraan de PERSOONPROFIEL BEPERKING gekoppeld is</t>
-  </si>
-  <si>
-    <t>CODE van het PERSOONPROFIEL waarvoor de beperking van toepassing is</t>
-  </si>
-  <si>
-    <t>Mogelijke REDEN voor het stopzetten van een REISCONTRACT</t>
-  </si>
-  <si>
-    <t>Waarden:
-- 001
-- 002
-- 003
-- 004
-- 005
-- 009</t>
-  </si>
-  <si>
-    <t>Waarden:
-- Antwerpen (001)
-- Limburg (002)
-- Oost-Vlaanderen (003)
-- Vlaams-Brabant (004)
-- West-Vlaanderen (005)
-- Shared Service Center (006)</t>
-  </si>
-  <si>
-    <t>Enum-waarden
-- 0: B2B
-- 1: B2C</t>
-  </si>
-  <si>
-    <t>B2B_ACCOUNTS</t>
-  </si>
-  <si>
-    <t>Datum/tijd waarop de B2B ACCOUNT is aangemaakt</t>
-  </si>
-  <si>
-    <t>Identificatie van de gebruiker die de B2B ACCOUNT heeft aangemaakt</t>
-  </si>
-  <si>
-    <t>Datum/tijd waarop de B2B ACCOUNT het laatst is gewijzigd</t>
-  </si>
-  <si>
-    <t>Identificatie van de gebruiker die de B2B ACCOUNT het laatst heeft gewijzigd</t>
-  </si>
-  <si>
-    <t>Identificatie van de B2B ACCOUNT, GUID gegenereerd door systeem</t>
-  </si>
-  <si>
-    <t>CODE van de PARTIJ van wie het B2B ACCOUNT is</t>
-  </si>
-  <si>
-    <t>B2B_ACCOUNT_ID</t>
-  </si>
-  <si>
-    <t>Externe referentie van het CONTRACT. Dit bevat een combinatie van: [SALES SAM ID] - [SALES SAM COUNTER]
-EXTERNE ID kan gebruikt worden voor identificatie van een bepaald contract.</t>
-  </si>
-  <si>
-    <t>Startdatum/tijd van het CONTRACT</t>
-  </si>
-  <si>
-    <t>Waarden (bijvoorbeeld):
-- CA80: SAM Teller
-- CA8: SAM ID
-- CA102: Maximum aantal contracten van dit artikel
-- CA15: Verkoopsdatum
-- CA66: Taal kaarthouder
-- CA54: Kaarthouder Geboortedag
-- ...</t>
-  </si>
-  <si>
-    <t>1ste versie</t>
-  </si>
-  <si>
-    <t>Tabel details</t>
-  </si>
-  <si>
-    <t>ENTITEIT_NAAM</t>
-  </si>
-  <si>
-    <t>00.03</t>
-  </si>
-  <si>
-    <t>Aanpassing ifv RV3</t>
-  </si>
-  <si>
-    <t>TARIEF_BEPERKINGENs</t>
-  </si>
-  <si>
-    <t>TARIFFCONSTRAINT</t>
+    <t>BILLINGCOUNTLEFT</t>
+  </si>
+  <si>
+    <t>RENEWDISABLED</t>
   </si>
 </sst>
 </file>
@@ -2554,7 +1986,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2577,11 +2009,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2600,6 +2060,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2608,7 +2079,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2719,7 +2190,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="kapsch_CMYK_71mm_blackyellow_300dpi"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="kapsch_CMYK_71mm_blackyellow_300dpi">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2792,7 +2269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1186" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1186" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A2040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2837,9 +2320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2877,7 +2360,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2983,7 +2466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3163,61 +2646,61 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="30.6640625" customWidth="1"/>
+    <col min="1" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>693</v>
+        <v>579</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>694</v>
+        <v>580</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>695</v>
+        <v>581</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>42438</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>697</v>
+        <v>583</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>698</v>
+        <v>584</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>42550</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>697</v>
+        <v>583</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>762</v>
+        <v>593</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3238,9 +2721,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>455</v>
       </c>
@@ -3259,9 +2742,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>457</v>
       </c>
@@ -3269,7 +2752,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>459</v>
       </c>
@@ -3288,9 +2771,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>461</v>
       </c>
@@ -3298,7 +2781,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>463</v>
       </c>
@@ -3306,7 +2789,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>465</v>
       </c>
@@ -3314,7 +2797,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>467</v>
       </c>
@@ -3322,7 +2805,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -3341,9 +2824,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>457</v>
       </c>
@@ -3351,7 +2834,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>459</v>
       </c>
@@ -3370,9 +2853,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>471</v>
       </c>
@@ -3391,9 +2874,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>473</v>
       </c>
@@ -3401,7 +2884,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>474</v>
       </c>
@@ -3409,7 +2892,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>475</v>
       </c>
@@ -3428,9 +2911,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>476</v>
       </c>
@@ -3449,9 +2932,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +2942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3467,7 +2950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3475,7 +2958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3483,7 +2966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3491,7 +2974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3499,7 +2982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -3507,7 +2990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -3515,7 +2998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3523,7 +3006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3531,7 +3014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3539,7 +3022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3547,7 +3030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -3555,7 +3038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3574,9 +3057,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -3584,7 +3067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -3592,7 +3075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -3600,7 +3083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -3608,7 +3091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -3616,7 +3099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,7 +3107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -3632,7 +3115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -3640,7 +3123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -3648,7 +3131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -3656,7 +3139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -3664,7 +3147,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -3672,7 +3155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -3680,7 +3163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -3688,7 +3171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -3696,7 +3179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -3704,7 +3187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -3712,7 +3195,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -3720,7 +3203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -3728,7 +3211,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -3736,7 +3219,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -3744,7 +3227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -3752,7 +3235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
@@ -3760,7 +3243,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -3768,7 +3251,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -3776,7 +3259,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -3784,7 +3267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
@@ -3792,7 +3275,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -3800,7 +3283,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
@@ -3808,7 +3291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -3816,7 +3299,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -3824,7 +3307,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3832,7 +3315,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -3840,7 +3323,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -3848,7 +3331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -3856,7 +3339,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -3864,7 +3347,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -3872,7 +3355,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -3880,7 +3363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
@@ -3888,7 +3371,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>109</v>
       </c>
@@ -3896,7 +3379,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -3904,7 +3387,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -3912,7 +3395,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -3920,7 +3403,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
@@ -3928,7 +3411,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>119</v>
       </c>
@@ -3936,7 +3419,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
@@ -3944,7 +3427,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>123</v>
       </c>
@@ -3952,7 +3435,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>125</v>
       </c>
@@ -3960,7 +3443,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>126</v>
       </c>
@@ -3968,7 +3451,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>127</v>
       </c>
@@ -3976,7 +3459,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
@@ -3984,7 +3467,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>131</v>
       </c>
@@ -3992,7 +3475,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -4000,7 +3483,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
@@ -4008,7 +3491,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -4016,7 +3499,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>139</v>
       </c>
@@ -4024,7 +3507,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>141</v>
       </c>
@@ -4032,7 +3515,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
@@ -4040,7 +3523,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>144</v>
       </c>
@@ -4048,7 +3531,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>145</v>
       </c>
@@ -4056,7 +3539,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>147</v>
       </c>
@@ -4064,7 +3547,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>148</v>
       </c>
@@ -4072,7 +3555,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>149</v>
       </c>
@@ -4080,7 +3563,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
@@ -4088,7 +3571,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>153</v>
       </c>
@@ -4096,7 +3579,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>155</v>
       </c>
@@ -4104,7 +3587,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>156</v>
       </c>
@@ -4112,7 +3595,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>157</v>
       </c>
@@ -4120,7 +3603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>158</v>
       </c>
@@ -4128,7 +3611,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
@@ -4136,7 +3619,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>160</v>
       </c>
@@ -4144,7 +3627,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -4152,7 +3635,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>162</v>
       </c>
@@ -4160,7 +3643,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>163</v>
       </c>
@@ -4168,7 +3651,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -4176,7 +3659,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
@@ -4184,7 +3667,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>166</v>
       </c>
@@ -4192,7 +3675,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>167</v>
       </c>
@@ -4200,7 +3683,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -4208,7 +3691,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>170</v>
       </c>
@@ -4216,7 +3699,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>172</v>
       </c>
@@ -4224,7 +3707,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>174</v>
       </c>
@@ -4232,7 +3715,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>176</v>
       </c>
@@ -4240,7 +3723,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>178</v>
       </c>
@@ -4248,7 +3731,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>180</v>
       </c>
@@ -4256,7 +3739,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>182</v>
       </c>
@@ -4264,7 +3747,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>184</v>
       </c>
@@ -4272,7 +3755,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>186</v>
       </c>
@@ -4280,7 +3763,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>188</v>
       </c>
@@ -4288,7 +3771,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>190</v>
       </c>
@@ -4296,7 +3779,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>192</v>
       </c>
@@ -4304,7 +3787,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>193</v>
       </c>
@@ -4312,7 +3795,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
@@ -4320,7 +3803,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>197</v>
       </c>
@@ -4328,7 +3811,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>199</v>
       </c>
@@ -4336,7 +3819,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>200</v>
       </c>
@@ -4344,7 +3827,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>202</v>
       </c>
@@ -4352,7 +3835,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>203</v>
       </c>
@@ -4360,7 +3843,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>205</v>
       </c>
@@ -4368,7 +3851,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>207</v>
       </c>
@@ -4376,7 +3859,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>208</v>
       </c>
@@ -4384,7 +3867,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>210</v>
       </c>
@@ -4392,7 +3875,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>211</v>
       </c>
@@ -4400,7 +3883,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>213</v>
       </c>
@@ -4408,7 +3891,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>215</v>
       </c>
@@ -4416,7 +3899,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>217</v>
       </c>
@@ -4424,7 +3907,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>219</v>
       </c>
@@ -4432,7 +3915,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>221</v>
       </c>
@@ -4440,7 +3923,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
@@ -4448,7 +3931,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -4456,7 +3939,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>224</v>
       </c>
@@ -4464,7 +3947,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>226</v>
       </c>
@@ -4472,7 +3955,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>228</v>
       </c>
@@ -4480,7 +3963,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>230</v>
       </c>
@@ -4488,7 +3971,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>232</v>
       </c>
@@ -4496,7 +3979,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>233</v>
       </c>
@@ -4504,7 +3987,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>235</v>
       </c>
@@ -4512,7 +3995,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>237</v>
       </c>
@@ -4520,7 +4003,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>239</v>
       </c>
@@ -4528,7 +4011,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>240</v>
       </c>
@@ -4536,7 +4019,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>241</v>
       </c>
@@ -4544,7 +4027,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>243</v>
       </c>
@@ -4552,7 +4035,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>245</v>
       </c>
@@ -4560,7 +4043,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>247</v>
       </c>
@@ -4568,7 +4051,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>249</v>
       </c>
@@ -4576,7 +4059,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>251</v>
       </c>
@@ -4584,7 +4067,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>253</v>
       </c>
@@ -4592,7 +4075,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>255</v>
       </c>
@@ -4600,7 +4083,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>257</v>
       </c>
@@ -4608,7 +4091,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>259</v>
       </c>
@@ -4616,7 +4099,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>261</v>
       </c>
@@ -4624,7 +4107,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>263</v>
       </c>
@@ -4632,7 +4115,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>265</v>
       </c>
@@ -4651,9 +4134,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>478</v>
       </c>
@@ -4661,7 +4144,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>479</v>
       </c>
@@ -4669,7 +4152,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>480</v>
       </c>
@@ -4677,7 +4160,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>481</v>
       </c>
@@ -4685,7 +4168,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>482</v>
       </c>
@@ -4693,7 +4176,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>483</v>
       </c>
@@ -4701,7 +4184,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>484</v>
       </c>
@@ -4709,7 +4192,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>485</v>
       </c>
@@ -4717,7 +4200,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>486</v>
       </c>
@@ -4725,7 +4208,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>487</v>
       </c>
@@ -4733,7 +4216,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>488</v>
       </c>
@@ -4741,7 +4224,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>489</v>
       </c>
@@ -4756,44 +4239,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H200"/>
+  <dimension ref="A2:F202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:XFD194"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="2" width="30.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -4804,2545 +4283,2315 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>502</v>
+      <c r="E7" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>502</v>
+      <c r="E8" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>502</v>
+      <c r="E9" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>503</v>
-      </c>
+      <c r="E10" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>502</v>
+      <c r="E11" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>503</v>
-      </c>
+      <c r="E12" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>747</v>
-      </c>
+      <c r="C13" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="C16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>502</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>502</v>
+        <v>47</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="F22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>502</v>
       </c>
+      <c r="E22" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>502</v>
+        <v>154</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="C28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="C29" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>502</v>
+        <v>496</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="C30" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>502</v>
+        <v>47</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>745</v>
+        <v>589</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>746</v>
+        <v>116</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>502</v>
+        <v>592</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="C34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>502</v>
+        <v>124</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="C35" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="C36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>502</v>
       </c>
+      <c r="E36" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="C37" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>502</v>
+        <v>154</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="C38" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>701</v>
+        <v>607</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="C39" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="B42" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="C43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="C44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>502</v>
+        <v>42</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="C45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>502</v>
+        <v>47</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="C46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>703</v>
+        <v>61</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="C47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>502</v>
+        <v>65</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="C48" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>502</v>
+        <v>67</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="C49" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>502</v>
+        <v>74</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="C50" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>704</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="C51" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>502</v>
+      <c r="E51" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="C52" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>556</v>
+        <v>124</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="C53" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>502</v>
+        <v>128</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="C54" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="C55" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>502</v>
+        <v>138</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="C56" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="C57" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="F57" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>502</v>
       </c>
+      <c r="E57" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="C58" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>705</v>
+        <v>154</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="C59" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>502</v>
+        <v>169</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="C60" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>502</v>
+        <v>191</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="C61" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>707</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="C62" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>502</v>
+        <v>220</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="C63" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>557</v>
+        <v>246</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="C64" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>558</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="C65" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="C66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="B71" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
-      <c r="C72" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="C73" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="C74" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>502</v>
+        <v>53</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="C75" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>502</v>
+        <v>55</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="C76" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>502</v>
+        <v>78</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="C77" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="C78" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>502</v>
+        <v>84</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="C79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>708</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="C80" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="C81" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="C82" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>709</v>
+        <v>102</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="C83" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="C84" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="C85" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>625</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="C86" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="E86" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="C87" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="C88" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="C89" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="C90" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>626</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="C91" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>502</v>
+        <v>154</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="C92" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="C93" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>728</v>
+        <v>179</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="C94" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>710</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="C95" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="C96" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="C97" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="C98" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="C99" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="C100" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>627</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="C101" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="C102" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="C103" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>628</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="C104" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="C105" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>502</v>
+        <v>234</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="C106" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>629</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="C107" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>630</v>
+        <v>238</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="C108" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>711</v>
+        <v>242</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="C109" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F109" s="7"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="C110" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="C111" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="C112" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="C113" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F113" s="7"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="C114" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>502</v>
+        <v>622</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
+      <c r="C115" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
+      <c r="A116" s="3"/>
+      <c r="C116" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="C119" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B119" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="C120" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="C121" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F121" s="7"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="C122" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F122" s="7"/>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="C123" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>502</v>
+        <v>99</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
+      <c r="C124" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="A125" s="3"/>
+      <c r="C125" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F125" s="7"/>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
-      <c r="C128" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>758</v>
-      </c>
+      <c r="B128" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
-      <c r="C129" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="C130" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>502</v>
+        <v>59</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="C131" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F131" s="7"/>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="C132" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F132" s="7"/>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="C133" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>502</v>
+        <v>97</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="C134" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F134" s="7"/>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="C135" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F135" s="7"/>
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="C136" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>502</v>
+        <v>154</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="C137" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>657</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
+      <c r="C138" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F138" s="7"/>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
+      <c r="C139" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B143" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
-      <c r="C143" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="3"/>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
-      <c r="C144" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="C145" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F145" s="7"/>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="C146" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>663</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F146" s="7"/>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="C147" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>664</v>
+        <v>154</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="C148" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>665</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F148" s="7"/>
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="C149" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>666</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F149" s="7"/>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+      <c r="C151" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+    </row>
+    <row r="153" spans="1:6" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="3"/>
-      <c r="C155" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B155" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="C156" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="C157" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>502</v>
+        <v>69</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
+      <c r="C158" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
+      <c r="C159" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F159" s="7"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-    </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-    </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="3"/>
-      <c r="C164" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B164" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="C165" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>712</v>
-      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="C166" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>502</v>
+        <v>69</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="C167" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>502</v>
+        <v>124</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="C168" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F168" s="7"/>
     </row>
     <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
+      <c r="C169" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
+      <c r="C170" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F170" s="7"/>
     </row>
     <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B172" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="C172" s="4"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-    </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-    </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="3"/>
-      <c r="C174" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B174" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
-      <c r="C175" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="C176" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>502</v>
+        <v>69</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="C177" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>502</v>
+        <v>154</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
+      <c r="C178" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F178" s="7"/>
     </row>
     <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
+      <c r="C179" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F179" s="7"/>
     </row>
     <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="C181" s="4"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-    </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-    </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="3"/>
-      <c r="C183" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B183" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="3"/>
     </row>
     <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
-      <c r="C184" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
     </row>
     <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="C185" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>502</v>
+        <v>69</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
+      <c r="C186" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F186" s="7"/>
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
+      <c r="A187" s="3"/>
+      <c r="C187" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="C188" s="4"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-    </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-    </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="3"/>
-      <c r="C190" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B190" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C190" s="4"/>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
-      <c r="C191" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>713</v>
-      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
     </row>
     <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
+      <c r="C192" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
+      <c r="A193" s="3"/>
+      <c r="C193" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B194" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-    </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-    </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="3"/>
-      <c r="C196" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B196" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
-      <c r="C197" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="C198" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3"/>
+      <c r="C199" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3"/>
+      <c r="C200" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-    </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>765</v>
+      <c r="D200" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F200" s="7"/>
+    </row>
+    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
+    </row>
+    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7356,9 +6605,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -7375,7 +6624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7404,7 +6653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7435,9 +6684,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -7445,7 +6694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7453,7 +6702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7461,7 +6710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -7469,7 +6718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -7477,7 +6726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7485,7 +6734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -7493,7 +6742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -7501,7 +6750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -7509,7 +6758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -7517,7 +6766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -7525,7 +6774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -7533,7 +6782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -7541,7 +6790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -7560,9 +6809,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -7570,7 +6819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -7578,7 +6827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -7586,7 +6835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -7594,7 +6843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -7602,7 +6851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -7610,7 +6859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -7618,7 +6867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -7626,7 +6875,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -7634,7 +6883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -7642,7 +6891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -7650,7 +6899,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -7658,7 +6907,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -7666,7 +6915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -7674,7 +6923,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -7682,7 +6931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -7690,7 +6939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -7698,7 +6947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -7706,7 +6955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -7714,7 +6963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -7722,7 +6971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -7730,7 +6979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -7738,7 +6987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
@@ -7746,7 +6995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -7754,7 +7003,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -7762,7 +7011,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -7770,7 +7019,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
@@ -7778,7 +7027,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -7786,7 +7035,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
@@ -7794,7 +7043,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -7802,7 +7051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -7810,7 +7059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -7818,7 +7067,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -7826,7 +7075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -7834,7 +7083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -7842,7 +7091,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -7850,7 +7099,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -7858,7 +7107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -7866,7 +7115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
@@ -7874,7 +7123,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>109</v>
       </c>
@@ -7882,7 +7131,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -7890,7 +7139,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -7898,7 +7147,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -7906,7 +7155,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
@@ -7914,7 +7163,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>119</v>
       </c>
@@ -7922,7 +7171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
@@ -7930,7 +7179,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>123</v>
       </c>
@@ -7938,7 +7187,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>125</v>
       </c>
@@ -7946,7 +7195,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>126</v>
       </c>
@@ -7954,7 +7203,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>127</v>
       </c>
@@ -7962,7 +7211,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
@@ -7970,7 +7219,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>131</v>
       </c>
@@ -7978,7 +7227,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -7986,7 +7235,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
@@ -7994,7 +7243,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -8002,7 +7251,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>139</v>
       </c>
@@ -8010,7 +7259,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>141</v>
       </c>
@@ -8018,7 +7267,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
@@ -8026,7 +7275,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>144</v>
       </c>
@@ -8034,7 +7283,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>145</v>
       </c>
@@ -8042,7 +7291,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>147</v>
       </c>
@@ -8050,7 +7299,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>148</v>
       </c>
@@ -8058,7 +7307,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>149</v>
       </c>
@@ -8066,7 +7315,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
@@ -8074,7 +7323,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>153</v>
       </c>
@@ -8082,7 +7331,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>155</v>
       </c>
@@ -8090,7 +7339,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>156</v>
       </c>
@@ -8098,7 +7347,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>157</v>
       </c>
@@ -8106,7 +7355,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>158</v>
       </c>
@@ -8114,7 +7363,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
@@ -8122,7 +7371,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>160</v>
       </c>
@@ -8130,7 +7379,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -8138,7 +7387,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>162</v>
       </c>
@@ -8146,7 +7395,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>163</v>
       </c>
@@ -8154,7 +7403,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -8162,7 +7411,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
@@ -8170,7 +7419,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>166</v>
       </c>
@@ -8178,7 +7427,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>167</v>
       </c>
@@ -8186,7 +7435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -8194,7 +7443,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>170</v>
       </c>
@@ -8202,7 +7451,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>172</v>
       </c>
@@ -8210,7 +7459,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>174</v>
       </c>
@@ -8218,7 +7467,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>176</v>
       </c>
@@ -8226,7 +7475,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>178</v>
       </c>
@@ -8234,7 +7483,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>180</v>
       </c>
@@ -8242,7 +7491,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>182</v>
       </c>
@@ -8250,7 +7499,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>184</v>
       </c>
@@ -8258,7 +7507,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>186</v>
       </c>
@@ -8266,7 +7515,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>188</v>
       </c>
@@ -8274,7 +7523,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>190</v>
       </c>
@@ -8282,7 +7531,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8290,7 +7539,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>193</v>
       </c>
@@ -8298,7 +7547,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
@@ -8306,7 +7555,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>197</v>
       </c>
@@ -8314,7 +7563,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>199</v>
       </c>
@@ -8322,7 +7571,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>200</v>
       </c>
@@ -8330,7 +7579,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>202</v>
       </c>
@@ -8338,7 +7587,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>203</v>
       </c>
@@ -8346,7 +7595,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>205</v>
       </c>
@@ -8354,7 +7603,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>207</v>
       </c>
@@ -8362,7 +7611,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>208</v>
       </c>
@@ -8370,7 +7619,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>210</v>
       </c>
@@ -8378,7 +7627,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>211</v>
       </c>
@@ -8386,7 +7635,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>213</v>
       </c>
@@ -8394,7 +7643,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>215</v>
       </c>
@@ -8402,7 +7651,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>217</v>
       </c>
@@ -8410,7 +7659,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>219</v>
       </c>
@@ -8418,7 +7667,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>221</v>
       </c>
@@ -8426,7 +7675,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
@@ -8434,7 +7683,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>223</v>
       </c>
@@ -8442,7 +7691,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>224</v>
       </c>
@@ -8450,7 +7699,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>226</v>
       </c>
@@ -8458,7 +7707,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>228</v>
       </c>
@@ -8466,7 +7715,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>230</v>
       </c>
@@ -8474,7 +7723,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>232</v>
       </c>
@@ -8482,7 +7731,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>233</v>
       </c>
@@ -8490,7 +7739,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>235</v>
       </c>
@@ -8498,7 +7747,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>237</v>
       </c>
@@ -8506,7 +7755,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>239</v>
       </c>
@@ -8514,7 +7763,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>240</v>
       </c>
@@ -8522,7 +7771,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>241</v>
       </c>
@@ -8530,7 +7779,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>243</v>
       </c>
@@ -8538,7 +7787,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>245</v>
       </c>
@@ -8546,7 +7795,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>247</v>
       </c>
@@ -8554,7 +7803,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>249</v>
       </c>
@@ -8562,7 +7811,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>251</v>
       </c>
@@ -8570,7 +7819,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>253</v>
       </c>
@@ -8578,7 +7827,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>255</v>
       </c>
@@ -8586,7 +7835,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>257</v>
       </c>
@@ -8594,7 +7843,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>259</v>
       </c>
@@ -8602,7 +7851,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>261</v>
       </c>
@@ -8610,7 +7859,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>263</v>
       </c>
@@ -8618,7 +7867,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>265</v>
       </c>
@@ -8637,9 +7886,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
@@ -8647,7 +7896,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>269</v>
       </c>
@@ -8655,7 +7904,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>271</v>
       </c>
@@ -8663,7 +7912,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>273</v>
       </c>
@@ -8671,7 +7920,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>275</v>
       </c>
@@ -8679,7 +7928,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>277</v>
       </c>
@@ -8687,7 +7936,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>279</v>
       </c>
@@ -8695,7 +7944,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>281</v>
       </c>
@@ -8703,7 +7952,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>283</v>
       </c>
@@ -8711,7 +7960,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>285</v>
       </c>
@@ -8719,7 +7968,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>287</v>
       </c>
@@ -8727,7 +7976,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>289</v>
       </c>
@@ -8746,9 +7995,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>291</v>
       </c>
@@ -8756,7 +8005,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>293</v>
       </c>
@@ -8764,7 +8013,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>295</v>
       </c>
@@ -8772,7 +8021,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>297</v>
       </c>
@@ -8780,7 +8029,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>299</v>
       </c>
@@ -8788,7 +8037,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>301</v>
       </c>
@@ -8796,7 +8045,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>303</v>
       </c>
@@ -8804,7 +8053,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>305</v>
       </c>
@@ -8812,7 +8061,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>307</v>
       </c>
@@ -8820,7 +8069,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>309</v>
       </c>
@@ -8828,7 +8077,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>311</v>
       </c>
@@ -8836,7 +8085,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>313</v>
       </c>
@@ -8844,7 +8093,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>315</v>
       </c>
@@ -8852,7 +8101,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>317</v>
       </c>
@@ -8871,9 +8120,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>319</v>
       </c>
@@ -8892,9 +8141,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
@@ -8902,7 +8151,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>323</v>
       </c>
@@ -8910,7 +8159,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>325</v>
       </c>
@@ -8918,7 +8167,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>327</v>
       </c>
@@ -8926,7 +8175,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>329</v>
       </c>
@@ -8934,7 +8183,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>331</v>
       </c>
@@ -8942,7 +8191,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>333</v>
       </c>
@@ -8950,7 +8199,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>335</v>
       </c>
@@ -8958,7 +8207,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>337</v>
       </c>
@@ -8966,7 +8215,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>339</v>
       </c>
@@ -8974,7 +8223,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>341</v>
       </c>
@@ -8982,7 +8231,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>343</v>
       </c>
@@ -8990,7 +8239,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>345</v>
       </c>
@@ -8998,7 +8247,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>347</v>
       </c>
@@ -9006,7 +8255,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>349</v>
       </c>
@@ -9014,7 +8263,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>351</v>
       </c>
@@ -9022,7 +8271,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>353</v>
       </c>
@@ -9030,7 +8279,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>355</v>
       </c>
@@ -9038,7 +8287,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>357</v>
       </c>
@@ -9046,7 +8295,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>359</v>
       </c>
@@ -9054,7 +8303,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>361</v>
       </c>
@@ -9062,7 +8311,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>363</v>
       </c>
@@ -9070,7 +8319,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>365</v>
       </c>
@@ -9078,7 +8327,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>367</v>
       </c>
@@ -9086,7 +8335,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>369</v>
       </c>
@@ -9094,7 +8343,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>371</v>
       </c>
@@ -9102,7 +8351,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>373</v>
       </c>
@@ -9110,7 +8359,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>375</v>
       </c>
@@ -9118,7 +8367,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>377</v>
       </c>
@@ -9126,7 +8375,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>379</v>
       </c>
@@ -9134,7 +8383,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>381</v>
       </c>
@@ -9142,7 +8391,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>383</v>
       </c>
@@ -9150,7 +8399,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>385</v>
       </c>
@@ -9158,7 +8407,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>387</v>
       </c>
@@ -9166,7 +8415,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>389</v>
       </c>
@@ -9174,7 +8423,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>391</v>
       </c>
@@ -9182,7 +8431,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>393</v>
       </c>
@@ -9190,7 +8439,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>395</v>
       </c>
@@ -9198,7 +8447,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>397</v>
       </c>
@@ -9206,7 +8455,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>399</v>
       </c>
@@ -9214,7 +8463,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>401</v>
       </c>
@@ -9222,7 +8471,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>403</v>
       </c>
@@ -9230,7 +8479,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>405</v>
       </c>
@@ -9238,7 +8487,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>407</v>
       </c>
@@ -9246,7 +8495,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>409</v>
       </c>
@@ -9254,7 +8503,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>411</v>
       </c>
@@ -9262,7 +8511,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>413</v>
       </c>
@@ -9270,7 +8519,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>415</v>
       </c>
@@ -9278,7 +8527,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>417</v>
       </c>
@@ -9286,7 +8535,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>419</v>
       </c>
@@ -9294,7 +8543,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>421</v>
       </c>
@@ -9302,7 +8551,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>423</v>
       </c>
@@ -9310,7 +8559,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>425</v>
       </c>
@@ -9318,7 +8567,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>427</v>
       </c>
@@ -9326,7 +8575,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>429</v>
       </c>
@@ -9334,7 +8583,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>431</v>
       </c>
@@ -9342,7 +8591,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>433</v>
       </c>
@@ -9350,7 +8599,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>435</v>
       </c>
@@ -9358,7 +8607,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>437</v>
       </c>
@@ -9366,7 +8615,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>439</v>
       </c>
@@ -9374,7 +8623,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>441</v>
       </c>
@@ -9382,7 +8631,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>443</v>
       </c>
@@ -9390,7 +8639,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>445</v>
       </c>
@@ -9398,7 +8647,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>447</v>
       </c>
@@ -9406,7 +8655,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>449</v>
       </c>
@@ -9414,7 +8663,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>451</v>
       </c>
@@ -9422,7 +8671,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>453</v>
       </c>
